--- a/qa1 - 副本.xlsx
+++ b/qa1 - 副本.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
   <si>
     <t>问题</t>
   </si>
@@ -47,6 +47,6083 @@
   </si>
   <si>
     <t>0.4 μg/kg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某实验室测定某目标物含量为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 98.5μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，另一目标物为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 102μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> HJ605 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>要求，两者应分别保留几位数字？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">98.5μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，保留小数点后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 98.5μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">102μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，保留</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位有效数字，即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 102μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土壤样品采集需遵循</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原则，简述这两个原则的具体含义及对样品代表性的影响</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原则指组成样品的个体应随机取自总体，避免主观因素，使每个个体有同等机会被选中；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原则指相互比较的样品应包含相同数量的个体，避免样本量差异影响代表性。两者共同保证样品具有同等代表性，差异越小，代表性越好。</t>
+    </r>
+  </si>
+  <si>
+    <t>当苯和苯乙烯在空白试验中出现异常高值，可能的原因是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Tenax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能变质失效。</t>
+    </r>
+  </si>
+  <si>
+    <t>空白试验分析结果需满足的条件中，目标物浓度需小于相关环保标准限值的多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制备铅标准贮备液（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ρ(Pb)=1000mg/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的具体步骤及保存要求是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（精确到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.1mg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）金属铅，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硝酸溶液加热溶解，冷却后用水定容至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。贮存于聚乙烯瓶中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以下冷藏保存，有效期两年。也可直接购买市售有证标准溶液</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤样品风干、粗粉碎、磨样分别使用哪些工具？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风干：白色搪瓷盘及木盘；粗粉碎：木锤、木滚、木棒、有机玻璃棒、有机玻璃板、硬质木板、无色聚乙烯薄膜；磨样：玛瑙研磨机（球磨机）或玛瑙研钵、白色瓷研钵</t>
+    </r>
+  </si>
+  <si>
+    <t>实验用水的要求是什么？</t>
+  </si>
+  <si>
+    <t>新制备的去离子水</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硝酸溶液（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）在哪些标准贮备液的配制中被使用？</t>
+    </r>
+  </si>
+  <si>
+    <t>铜标准贮备液、铅标准贮备液、镍标准贮备液的配制。</t>
+  </si>
+  <si>
+    <t>空白试样制备时，加酸量需满足什么条件？</t>
+  </si>
+  <si>
+    <t>与试样制备时的加酸量保持一致。</t>
+  </si>
+  <si>
+    <t>基体复杂的土壤或沉积物样品测定时，需采用仪器的什么功能？</t>
+  </si>
+  <si>
+    <t>背景校正功能。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 232.0nm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作为镍的吸收线时，如何减少镍三线光谱的影响？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.2nm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的光谱通带可减少该影响。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤加标回收实验中，铜的加标回收率范围和最终值有何要求？（以黄壤样品为例）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 17mg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，回收率范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 88.9%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>105%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最终值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 96.9%±12.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；加标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 42mg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 92.7%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>98.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最终值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 95.5%±4.2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个样品或每批次（少于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个）分析时，需进行哪些质量控制操作？（至少答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个实验室空白，空白结果需低于测定下限或方法检出限；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）分析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个平行样，相对偏差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）测定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个有证标准样品，相对误差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±15% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内，或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个基体加标样品，回收率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）核查标准系列零浓度点（低于检出限）和中间浓度点（相对误差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内）。</t>
+    </r>
+  </si>
+  <si>
+    <t>有机溶剂选择需遵循哪些原则？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）与待测物极性相近（相似相溶）；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）能与样品良好分离，不影响待测物纯化与测定；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）不与样品反应，毒性低、价格便宜；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）沸点范围</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 45℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为宜；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）具有良好的样品渗透力；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）单一溶剂不理想时，可采用混合溶剂。</t>
+    </r>
+  </si>
+  <si>
+    <t>制备时，对酸的使用有何要求？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）样品消解时注意各种酸的加入顺序；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）空白试样制备的加酸量与试样制备时保持一致。</t>
+    </r>
+  </si>
+  <si>
+    <t>对于基体复杂的土壤或沉积物样品，测定时需采取哪些措施？</t>
+  </si>
+  <si>
+    <t>采用仪器背景校正功能。</t>
+  </si>
+  <si>
+    <t>初步判定样品中含有或不含有目标物时，对平行样或加标样品的替代物相对偏差要求是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若含有目标物，需分析平行样，替代物相对偏差应在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内；若不含有目标物，需分析加标样品，该样品及加标样品中替代物相对偏差应在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内。</t>
+    </r>
+  </si>
+  <si>
+    <t>苯乙烯的检出限、测定下限和最小相对响应因子分别是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检出限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1.1μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，测定下限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4.4μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最小相对响应因子为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土壤监测项目的分析方法中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ICP-AES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">GC-MS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别代表什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ICP-AES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表等离子发射光谱法；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">GC-MS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表气相色谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质谱联用法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪器性能检查中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溶液的注入方式有哪两种？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）用微量注射器移取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2μl </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直接注入气相色谱仪；（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）加入到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空白试剂水中，通过吹扫捕集装置注入。</t>
+    </r>
+  </si>
+  <si>
+    <t>空白加标样品的作用是什么？其目标物回收率的合格范围是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作用是验证是否存在基体效应。目标物回收率应在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>130%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>四氯乙烯的第一特征离子和第二特征离子分别是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一特征离子为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，第二特征离子为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 129</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>131</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>每批样品分析时，实验室空白的要求是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每批样品至少做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个实验室空白，空白中锌的测定结果应低于测定下限，其余元素的测定结果应低于方法检出限。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤分类的六级分类制是什么？前三级和后三级分别以什么为主要单元？</t>
+  </si>
+  <si>
+    <t>六级分类制为土纲、土类、亚类、土属、土种、变种。前三级以土类为主，后三级以土种为主。</t>
+  </si>
+  <si>
+    <t>当样品基体复杂时，除了提高酸度，还需注意什么？</t>
+  </si>
+  <si>
+    <t>需注意标准曲线的酸度与试样酸度保持一致，同时可采用仪器背景校正功能。</t>
+  </si>
+  <si>
+    <t>目标物定性时，特征离子的定义是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指目标物质谱图中三个相对丰度最大的离子；若质谱图中没有三个相对丰度最大的离子，则指相对丰度超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的所有离子。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六家实验室对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GSS-9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中铬的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次重复测定，相对误差范围是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-4.5%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>质量控制图中，上下警告线和控制线的含义是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上下警告线（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X±2S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）用于提示分析可能存在异常倾向；上下控制线（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X±3S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）用于判断分析是否失控，测定值超出控制线则结果不可信。</t>
+    </r>
+  </si>
+  <si>
+    <t>校准曲线不合格时，应采取哪些措施？</t>
+  </si>
+  <si>
+    <t>需更换捕集管、色谱柱或采取其他措施，然后重新绘制校准曲线。</t>
+  </si>
+  <si>
+    <t>氯甲烷的测定下限是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.0μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河流沉积物样品中铜的加标回收率（加标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 17mg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）范围和最终值是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 87.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最终值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 94.3%±9.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溶液检查中，质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 174 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的离子丰度标准是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 95 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>每批次样品分析结束后，标准系列中间浓度点的核查要求是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中间浓度测定值与标准值的相对误差应在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1,3 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二氯丙烷的出峰顺序对应的序号是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验室间相对标准偏差对于五家实验室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的统一样品，范围分别是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的实验室间相对标准偏差为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.2%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>57.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>加标回收率最终值的表示方式是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以平均值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ± </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对标准偏差表示（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 96.9%±12.4%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溶液检查中，质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 176 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的离子丰度标准是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 174 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 93%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>101%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>当空白试验未满足要求时，重新分析样品的前提是什么？</t>
+  </si>
+  <si>
+    <t>需采取措施排除污染后，再重新分析同批样品。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">GSS-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中锌的相对误差最终值是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1.3%±7.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校准曲线中，相对响应因子（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RRF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RSD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合格上限是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>运输空白和全程序空白的采集频率是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每批样品至少各采集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个。</t>
+    </r>
+  </si>
+  <si>
+    <t>特征离子的相对丰度变化允许范围是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校准确认标准溶液的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六家实验室对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GSD-5a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中锌的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次重复测定，相对误差范围是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-0.8%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.1%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仪器性能检查中，若软件不能自动判定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离子丰度是否符合标准，应如何处理？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可取峰顶扫描点及其前后两个扫描点离子丰度的平均值扣除背景值后获得关键离子丰度，背景值可选取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出峰前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次扫描点中的任意一点（由柱流失或仪器背景离子产生）。</t>
+    </r>
+  </si>
+  <si>
+    <t>基体加标样品的加标回收率合格范围是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五家实验室对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的统一样品的重复性限范围分别是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的重复性限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.9μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 7.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31.5μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>空白试验中，若目标物浓度同时满足三个条件，应取哪个作为判定标准？</t>
+  </si>
+  <si>
+    <t>取三个条件中的最大者作为判定标准。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四极杆质谱与离子阱质谱在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离子丰度标准上有何区别？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四极杆质谱需符合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准；离子阱或其他类型质谱仪可参照仪器制造商的说明执行。</t>
+    </r>
+  </si>
+  <si>
+    <t>有证标准样品的测定结果与保证值的相对误差允许范围是多少？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">±15% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再现性限对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>五家实验室对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的统一样品的再现性限范围分别是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">5.0μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的再现性限为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5.6μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">100μg/kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品的为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 11.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>44.3μg/kg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当样品含水率大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，提取液体积</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Vc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的计算依据是什么？</t>
+    </r>
+  </si>
+  <si>
+    <t>为甲醇与样品中水的体积之和。</t>
+  </si>
+  <si>
+    <t>标准曲线的相关系数合格下限是多少？</t>
+  </si>
+  <si>
+    <t>全程序空白的作用是什么？</t>
+  </si>
+  <si>
+    <t>监控样品运输和分析全过程的污染情况</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">GSS-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中铬的相对误差最终值是多少？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.4%±4.0%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>目标物定量时，若采用非线性校准曲线，试料中目标物质量浓度如何计算？</t>
+  </si>
+  <si>
+    <t>通过相应的非线性校准曲线计算。</t>
+  </si>
+  <si>
+    <t>当替代物回收率不合格且重复后仍不合格时，说明存在什么问题？</t>
+  </si>
+  <si>
+    <t>样品存在基体效应。</t>
+  </si>
+  <si>
+    <t>标准系列零浓度点的核查要求是什么？</t>
+  </si>
+  <si>
+    <t>测定结果应低于方法检出限。</t>
+  </si>
+  <si>
+    <t>质谱仪离子源污染时，可能会导致什么结果？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键离子丰度不符合标准，需清洗离子源。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用气相色谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质谱联用仪分析土壤中目标物时，仪器性能检查的流程是什么？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 24h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内，用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>溶液进行仪器性能检查，确保关键离子丰度符合表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标准；若不符合，调整质谱参数或清洗离子源；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测定校准确认标准溶液和空白试验样品，确认校准曲线有效性</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤监测的常规项目包括哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、阳离子交换量；重点项目为镉、铬、汞、砷、铅、铜、锌、镍、六六六、滴滴涕。</t>
+    </r>
+  </si>
+  <si>
+    <t>哪种布点方法适用于监测区域内土壤污染物含量变化较大的情况？</t>
+  </si>
+  <si>
+    <t>系统随机布点</t>
+  </si>
+  <si>
+    <t>区域土壤环境背景监测中，采样点应避开铁路、公路至少多少距离？</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t>农田土壤混合样的分点数一般在多少个之间？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5-20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤采样记录应标注什么？</t>
+  </si>
+  <si>
+    <t>采样时间、地点、样品编号、监测项目、采样深度和经纬度</t>
+  </si>
+  <si>
+    <t>系统随机布点的特点是？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将监测区域分成网格，每网格设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个采样点</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算网格间距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时，若采样单元面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的单位是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> km²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> L </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的单位是</t>
+    </r>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>土壤环境监测中，常规项目的监测频次原则上不低于</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年一次</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤环境监测类型主要包括</t>
+  </si>
+  <si>
+    <t>区域土壤环境背景监测、农田土壤环境质量监测、建设项目土壤环境评价监测和土壤污染事故监测</t>
+  </si>
+  <si>
+    <t>土壤采样前需要收集哪些主要资料？</t>
+  </si>
+  <si>
+    <t>包括监测区域交通图、土壤图、地质图等；土壤类型、成土母质等土壤信息；工程建设对土壤影响的资料；污染事故污染物资料；土壤历史资料和法律法规；工农业生产及排污、污灌、农药化肥施用情况；气候、水文资料；遥感与土壤利用资料等。</t>
+  </si>
+  <si>
+    <t>土壤剖面采样的注意事项有哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选在土壤类型特征明显、地形平坦稳定、植被良好处，避开人为干扰大的区域；②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剖面规格一般为长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1.5m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、宽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.8m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、深</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，观察面向阳；③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自下而上采样，先采底层，再采中层和上层；④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测重金属样品需用竹片去除与金属采样器接触的土壤；⑤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每层采</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1kg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右，装样品袋并标注标签；⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采样后按原层回填剖面。</t>
+    </r>
+  </si>
+  <si>
+    <t>农田土壤混合样的采集目的和分点数要求是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目的是代表农田耕作层土壤的整体状况；分点数一般在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5~20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，采集等量土壤混合均匀。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤采样器具中的安全防护用品包括哪些？</t>
+  </si>
+  <si>
+    <t>包括工作服、工作鞋、安全帽、药品箱等。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当使用四极杆质谱时，若</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> BFB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键离子丰度不符合标准，应采取什么措施？</t>
+    </r>
+  </si>
+  <si>
+    <t>调整质谱仪参数或清洗离子源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>某实验室分析土壤中苯系物时，空白样品中苯浓度为方法检出限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍。该结果是否符合空白控制要求？应采取哪些措施？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不符合（空白需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法检出限）。措施：排查污染来源（如试剂、器皿、环境），更换污染试剂，清洁实验器具，重新测定空白，合格后方可分析样品。</t>
+    </r>
+  </si>
+  <si>
+    <t>实际样品中目标物质谱图特征离子的相对丰度变化应在校准确认标准溶液的多少范围内？</t>
+  </si>
+  <si>
+    <t>±30%</t>
+  </si>
+  <si>
+    <t>平行样测定结果的相对偏差应满足什么要求？</t>
+  </si>
+  <si>
+    <t>≤20%</t>
+  </si>
+  <si>
+    <t>简述土壤样品风干至磨样的完整操作步骤。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取新鲜样品，去除异物（枝棒、石子等）；②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铺于白色搪瓷盘，室温下自然风干，避免阳光直射和污染；③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>风干后用木锤碾压，过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 2mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尼龙筛，四分法缩分；④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取部分过筛样品，用玛瑙研钵研磨至全部通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目尼龙筛；⑤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装瓶，贴标签，记录信息。</t>
+    </r>
+  </si>
+  <si>
+    <t>吹扫捕集测定土壤中挥发性有机物时，样品测定全过程</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品于吹扫瓶，加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甲醇（低含量）或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> + 10ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甲醇（高含量）；②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入替代物标准溶液；③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密封吹扫瓶，恒温（如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）平衡；④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吹扫捕集装置萃取（吹扫气流量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 40ml/min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 11min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）；⑤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解析（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>250℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）后进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> GC-MS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤样品中重金属的消解操作步骤是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.5g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样品于聚四氟乙烯坩埚；②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加少量水润湿，加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硝酸，过夜；③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电热板加热（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）至近干，加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氢氟酸、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高氯酸；④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升温至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 150℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，蒸至白烟冒尽；⑤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5ml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硝酸（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），加热溶解残渣；⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定容至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 25ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，待测。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤背景值与土壤筛选值的区别？</t>
+  </si>
+  <si>
+    <t>土壤背景值：区域内受人类活动影响较小的土壤中元素自然含量，反映自然本底。筛选值：基于风险评估制定的限值，用于判断土壤是否存在污染风险，超过需进一步调查。</t>
+  </si>
+  <si>
+    <t>土壤含水率测定的操作步骤是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>称取新鲜样品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10~20g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（精确至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0.01g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）于铝盒，记录质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> m1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 105℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>烘箱烘干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4~6h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，冷却后称重；③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重复烘干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，冷却称重至恒重（两次差值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤0.01g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），记录质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> m2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算：含水率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> w=(m1-m2)/m1×100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>替代物、内标的作用分别是什么？</t>
+  </si>
+  <si>
+    <t>替代物：样品前处理前加入，与目标物性质相似，用于评价基体和处理过程的影响（回收率反映损失或干扰）。内标：通常前处理后或进样前加入，用于校正仪器响应波动，提高定量准确性。</t>
+  </si>
+  <si>
+    <t>方法检出限与测定下限的区别是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法检出限：指方法能准确检出目标物的最低浓度（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">99% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置信度下）。测定下限：指方法能准确定量的最低浓度，通常为检出限的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倍，具有规定的精密度和准确度。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验室内相对标准偏差（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）与实验室间相对标准偏差的区别？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实验室内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：同一实验室对同一样品多次测定结果的离散程度，反映实验室内精密度。实验室间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> RSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：不同实验室对同一样品测定结果的离散程度，反映实验室间一致性。</t>
+    </r>
+  </si>
+  <si>
+    <t>在土壤监测中，混合样的四种采集方法（对角线法、梅花点法、棋盘式法、蛇形法）的分点数量和适用场景？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对角线法：分点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个（对角线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等份），适用于污灌农田土壤；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梅花点法：分点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个左右，适用于面积小、地势平坦、土壤组成和污染程度较均匀的地块；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>棋盘式法：常规分点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个左右，受污泥、垃圾污染的土壤需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个以上，适用于中等面积、地势平坦但土壤不够均匀的地块；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蛇形法：分点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个左右，适用于面积较大、土壤不均匀且地势不平坦的地块，多用于农业污染型土壤。</t>
+    </r>
+  </si>
+  <si>
+    <t>采样误差、制样误差和分析误差的主要来源及控制措施。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>采样误差：来源包括布点不随机、采样量不足、混合不均等；控制措施为严格遵循</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> “</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>原则，采用规范布点方法（如随机布点、混合样采集），保证采样量和混合均匀性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制样误差：来源包括样品风干不彻底、破碎过筛过程中污染或损失、分样不均等；控制措施为按标准步骤风干、破碎、过筛，使用洁净工具，采用四分法缩分样品。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分析误差：来源包括试剂污染、仪器精度不足、标准曲线偏差、操作失误等；控制措施为使用纯化试剂和校准仪器，严格执行质量控制（如空白试验、平行样分析、标准曲线核查）。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为何要求替代物加标回收率需在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 70%~130%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <t>该范围可有效反映样品处理过程（如提取、净化）的稳定性，若超出此范围，说明基体干扰或操作存在问题，需重新分析。</t>
+  </si>
+  <si>
+    <t>中间浓度点核查的相对误差要求是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每次分析需建立标准曲线，相关系数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥0.999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个样品或每批次结束后，核查标准系列零浓度点（结果低于方法检出限）和中间浓度点（相对误差在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内）。</t>
+    </r>
+  </si>
+  <si>
+    <t>若某批次样品的运输空白中目标物浓度超过方法检出限，应如何处理？</t>
+  </si>
+  <si>
+    <t>若运输空白超标，说明运输过程存在污染，需排查污染来源（如容器、运输环境），采取措施消除污染后重新采集样品。</t>
+  </si>
+  <si>
+    <t>质量控制图的绘制依据是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以质控样保证值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为中心线，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X±2S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为上下警告线，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">X±3S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为上下控制线（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">95% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>置信水平），其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为标准偏差。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤样品分析记录的填写和修改有哪些规范要求？</t>
+  </si>
+  <si>
+    <t>使用碳素墨水笔填写，内容齐全、字迹清楚；修改时在错误数据上划横线，上方写正确内容并加盖名章或签字；可采用活页、电子版本或存储介质保存；需用法定计量单位，有效数字位数由计量器具和仪器精度确定。</t>
+  </si>
+  <si>
+    <t>在土壤样品消解过程中，有哪些注意事项？</t>
+  </si>
+  <si>
+    <t>严格遵循酸的加入顺序；空白试样加酸量与试样一致；避免消解过程中样品溅失或污染。</t>
+  </si>
+  <si>
+    <t>土壤监测中，第一方法、第二方法、第三方法的定义及适用场景有何不同？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①第一方法：标准方法（仲裁方法），按土壤环境质量标准选配；②第二方法：权威部门规定或推荐的方法；③第三方法：自选等效方法。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>适用场景：第一方法用于仲裁和标准比对；第二方法用于常规监测；第三方法用于特殊情况（如地方特色样品）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三方法验证要求：需通过标准样品验证或比对实验，确保检出限、准确度、精密度不低于通用方法或满足待测物准确定量要求。</t>
+    </r>
+  </si>
+  <si>
+    <t>土壤监测中，每批样品分析前为何需进行仪器性能检查？</t>
+  </si>
+  <si>
+    <t>确保仪器处于正常工作状态，减少因仪器故障导致的分析误差，保证测定结果的可靠性。</t>
+  </si>
+  <si>
+    <t>基体加标与空白加标的主要区别是什么？</t>
+  </si>
+  <si>
+    <t>基体加标：在实际样品中加标，用于评价基体对目标物回收率的影响（基体效应）。空白加标：在空白基质（如纯试剂）中加标，用于验证方法本身的回收率，排除基体干扰时的参考。</t>
+  </si>
+  <si>
+    <t>消解过程中，若样品基体复杂，应如何调整实验条件以保证测定准确性？</t>
+  </si>
+  <si>
+    <t>适当提高试样酸度，同时保证标准曲线酸度与试样一致；采用仪器背景校正功能，减少基体干扰。</t>
+  </si>
+  <si>
+    <t>仪器性能检查内容包括哪些？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测定校准确认标准溶液（确认保留时间、峰面积稳定性）和空白试验样品（确认无污染），其中校准确认标准溶液的内标保留时间变化需</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤10s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，定量离子峰面积变化在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 50%~200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>目标物定性的两个主要依据是什么？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相对保留时间差值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤0.06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；与标准物质质谱图的比较，特征离子相对丰度变化在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内</t>
+    </r>
+  </si>
+  <si>
+    <t>质量保证和质量控制中，对有证标准样品和基体加标的要求有何异同？</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均为每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个样品或每批次进行；有证标准样品相对误差</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ±15% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内，基体加标回收率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -59,7 +6136,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +6299,13 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -674,7 +6758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,6 +6782,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,13 +7097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="52.4545454545455" style="2" customWidth="1"/>
@@ -1069,6 +7156,2283 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="56" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="42" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="70" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="56" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="28" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="42" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="28" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="25" customHeight="1" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="46" customHeight="1" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="25" customHeight="1" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="25" customHeight="1" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="25" customHeight="1" spans="1:7">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="25" customHeight="1" spans="1:7">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:7">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="25" customHeight="1" spans="1:7">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" ht="28" spans="1:7">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="42" spans="1:7">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:7">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" ht="28" spans="1:7">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="28" spans="1:7">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="28" spans="1:7">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="28" spans="1:7">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="28" spans="1:7">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="28" spans="1:7">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="1:7">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="25" customHeight="1" spans="1:7">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="25" customHeight="1" spans="1:7">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="33" customHeight="1" spans="1:7">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="28" spans="1:7">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:7">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="26" customHeight="1" spans="1:7">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:7">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="28" spans="1:7">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="28" spans="1:7">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="28" spans="1:7">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:7">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:7">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:7">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="26" customHeight="1" spans="1:7">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="26" customHeight="1" spans="1:7">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" ht="47" customHeight="1" spans="1:7">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="65" customHeight="1" spans="1:7">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="84" spans="1:7">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="28" spans="1:7">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="19" customHeight="1" spans="1:7">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" ht="28" spans="1:7">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="42" spans="1:7">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="28" spans="1:7">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:7">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="70" spans="1:7">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="70" spans="1:7">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" ht="56" spans="1:7">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="42" spans="1:7">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="56" spans="1:7">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="42" spans="1:7">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="42" spans="1:7">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" ht="42" spans="1:7">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="98" spans="1:7">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="126" spans="1:7">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="28" spans="1:7">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="42" spans="1:7">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="28" spans="1:7">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" ht="28" spans="1:7">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" ht="56" spans="1:7">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" ht="28" spans="1:7">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" ht="112" spans="1:7">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" ht="28" spans="1:7">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" ht="42" spans="1:7">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" ht="28" spans="1:7">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" ht="42" spans="1:7">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" ht="27" customHeight="1" spans="1:7">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" ht="28" spans="1:7">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
         <v>1</v>
       </c>
     </row>

--- a/qa1 - 副本.xlsx
+++ b/qa1 - 副本.xlsx
@@ -29,18 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>问题</t>
   </si>
   <si>
     <t>答案</t>
-  </si>
-  <si>
-    <t>TOP1</t>
-  </si>
-  <si>
-    <t>TOP3</t>
   </si>
   <si>
     <t>二氯二氟甲烷的检出限是多少？</t>
@@ -6317,12 +6314,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6384,6 +6375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6634,7 +6631,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6658,16 +6655,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6676,28 +6673,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6758,7 +6755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6768,10 +6765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6779,9 +6773,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7097,2343 +7088,1129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="52.4545454545455" style="2" customWidth="1"/>
     <col min="3" max="3" width="57.7272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.9090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7272727272727" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.2727272727273" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.4727272727273" style="1" customWidth="1"/>
-    <col min="8" max="16382" width="9" style="2"/>
+    <col min="4" max="16378" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:7">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="35" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:7">
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:7">
+    </row>
+    <row r="3" ht="28" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="56" spans="1:7">
+    </row>
+    <row r="4" ht="56" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:7">
+    </row>
+    <row r="5" ht="28" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:7">
+    </row>
+    <row r="6" ht="28" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="42" spans="1:7">
+    </row>
+    <row r="7" ht="42" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="42" spans="1:7">
+    </row>
+    <row r="8" ht="42" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="1" spans="1:7">
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="26" customHeight="1" spans="1:7">
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:7">
+    </row>
+    <row r="12" ht="28" spans="1:3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:7">
+    </row>
+    <row r="13" ht="28" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="42" spans="1:7">
+    </row>
+    <row r="14" ht="42" spans="1:3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="70" spans="1:7">
+    </row>
+    <row r="15" ht="70" spans="1:3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="56" spans="1:7">
+    </row>
+    <row r="16" ht="56" spans="1:3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:7">
+    </row>
+    <row r="17" ht="28" spans="1:3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="28" spans="1:7">
+    </row>
+    <row r="18" ht="28" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="42" spans="1:7">
+    </row>
+    <row r="19" ht="42" spans="1:3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:7">
+    </row>
+    <row r="20" ht="28" spans="1:3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:7">
+    </row>
+    <row r="21" ht="28" spans="1:3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:7">
+    </row>
+    <row r="22" ht="28" spans="1:3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="28" spans="1:7">
+    </row>
+    <row r="23" ht="28" spans="1:3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="22" customHeight="1" spans="1:7">
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:7">
+    </row>
+    <row r="25" ht="28" spans="1:3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="28" spans="1:7">
+    </row>
+    <row r="26" ht="28" spans="1:3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:7">
+    </row>
+    <row r="27" ht="28" spans="1:3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="28" spans="1:7">
+    </row>
+    <row r="28" ht="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="28" spans="1:7">
+    </row>
+    <row r="29" ht="28" spans="1:3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="42" spans="1:7">
+    </row>
+    <row r="30" ht="42" spans="1:3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="28" spans="1:7">
+    </row>
+    <row r="31" ht="28" spans="1:3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="22" customHeight="1" spans="1:7">
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="28" spans="1:7">
+    </row>
+    <row r="33" ht="28" spans="1:3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="27" customHeight="1" spans="1:7">
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:7">
+    </row>
+    <row r="35" ht="28" spans="1:3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="36" ht="25" customHeight="1" spans="1:3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="46" customHeight="1" spans="1:7">
+    </row>
+    <row r="37" ht="46" customHeight="1" spans="1:3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="38" ht="25" customHeight="1" spans="1:3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="1:3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="40" ht="25" customHeight="1" spans="1:3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="41" ht="25" customHeight="1" spans="1:3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="42" ht="25" customHeight="1" spans="1:3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="44" ht="25" customHeight="1" spans="1:3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" ht="28" spans="1:7">
+    </row>
+    <row r="45" ht="28" spans="1:3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="42" spans="1:7">
+    </row>
+    <row r="46" ht="42" spans="1:3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:7">
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" ht="28" spans="1:7">
+    </row>
+    <row r="48" ht="28" spans="1:3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="28" spans="1:7">
+    </row>
+    <row r="49" ht="28" spans="1:3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" ht="28" spans="1:7">
+    </row>
+    <row r="50" ht="28" spans="1:3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="28" spans="1:7">
+    </row>
+    <row r="51" ht="28" spans="1:3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="28" spans="1:7">
+    </row>
+    <row r="52" ht="28" spans="1:3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="1">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="28" spans="1:7">
+    </row>
+    <row r="53" ht="28" spans="1:3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="1:3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="6">
+        <v>107</v>
+      </c>
+      <c r="C54" s="5">
         <v>0.99</v>
       </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="55" ht="25" customHeight="1" spans="1:3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="1">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>1</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="25" customHeight="1" spans="1:7">
+    </row>
+    <row r="56" ht="25" customHeight="1" spans="1:3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="33" customHeight="1" spans="1:7">
+    </row>
+    <row r="57" ht="33" customHeight="1" spans="1:3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="1">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="28" spans="1:7">
+    </row>
+    <row r="58" ht="28" spans="1:3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="1">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="20" customHeight="1" spans="1:7">
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="26" customHeight="1" spans="1:7">
+    </row>
+    <row r="60" ht="26" customHeight="1" spans="1:3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="42" customHeight="1" spans="1:7">
+    </row>
+    <row r="61" ht="42" customHeight="1" spans="1:3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0</v>
-      </c>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="28" spans="1:7">
+    </row>
+    <row r="62" ht="28" spans="1:3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" ht="28" spans="1:7">
+    </row>
+    <row r="63" ht="28" spans="1:3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63" s="1">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="28" spans="1:7">
+    </row>
+    <row r="64" ht="28" spans="1:3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="1">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="23" customHeight="1" spans="1:7">
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="1">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="23" customHeight="1" spans="1:7">
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66" s="1">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" ht="23" customHeight="1" spans="1:7">
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0</v>
-      </c>
-      <c r="E67" s="1">
-        <v>1</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" ht="26" customHeight="1" spans="1:7">
+    </row>
+    <row r="68" ht="26" customHeight="1" spans="1:3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
-      <c r="E68" s="1">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" ht="26" customHeight="1" spans="1:7">
+    </row>
+    <row r="69" ht="26" customHeight="1" spans="1:3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" ht="47" customHeight="1" spans="1:7">
+    </row>
+    <row r="70" ht="47" customHeight="1" spans="1:3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="1">
-        <v>1</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="65" customHeight="1" spans="1:7">
+    </row>
+    <row r="71" ht="65" customHeight="1" spans="1:3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="1">
-        <v>1</v>
-      </c>
-      <c r="E71" s="1">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="G71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" ht="84" spans="1:7">
+    </row>
+    <row r="72" ht="84" spans="1:3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D72" s="1">
-        <v>1</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="28" spans="1:7">
+    </row>
+    <row r="73" ht="28" spans="1:3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="1">
-        <v>1</v>
-      </c>
-      <c r="E73" s="1">
-        <v>1</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="G73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="19" customHeight="1" spans="1:7">
+    </row>
+    <row r="74" ht="19" customHeight="1" spans="1:3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="28" spans="1:7">
+    </row>
+    <row r="75" ht="28" spans="1:3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="G75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="42" spans="1:7">
+    </row>
+    <row r="76" ht="42" spans="1:3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" ht="28" spans="1:7">
+    </row>
+    <row r="77" ht="28" spans="1:3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="G77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1" spans="1:7">
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="G78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="70" spans="1:7">
+    </row>
+    <row r="79" ht="70" spans="1:3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="G79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" ht="70" spans="1:7">
+    </row>
+    <row r="80" ht="70" spans="1:3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="56" spans="1:7">
+    </row>
+    <row r="81" ht="56" spans="1:3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="G81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="42" spans="1:7">
+    </row>
+    <row r="82" ht="42" spans="1:3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="1">
-        <v>1</v>
-      </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="G82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="56" spans="1:7">
+    </row>
+    <row r="83" ht="56" spans="1:3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-      <c r="G83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="42" spans="1:7">
+    </row>
+    <row r="84" ht="42" spans="1:3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="1">
-        <v>1</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0</v>
-      </c>
-      <c r="G84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="42" spans="1:7">
+    </row>
+    <row r="85" ht="42" spans="1:3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="42" spans="1:7">
+    </row>
+    <row r="86" ht="42" spans="1:3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0</v>
-      </c>
-      <c r="G86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="98" spans="1:7">
+    </row>
+    <row r="87" ht="98" spans="1:3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-      <c r="G87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" ht="126" spans="1:7">
+    </row>
+    <row r="88" ht="126" spans="1:3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1">
-        <v>1</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0</v>
-      </c>
-      <c r="G88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" ht="28" spans="1:7">
+    </row>
+    <row r="89" ht="28" spans="1:3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D89" s="1">
-        <v>1</v>
-      </c>
-      <c r="E89" s="1">
-        <v>1</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" ht="42" spans="1:7">
+    </row>
+    <row r="90" ht="42" spans="1:3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1</v>
-      </c>
-      <c r="E90" s="1">
-        <v>1</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-      <c r="G90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="28" spans="1:7">
+    </row>
+    <row r="91" ht="28" spans="1:3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0</v>
-      </c>
-      <c r="G91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="28" spans="1:7">
+    </row>
+    <row r="92" ht="28" spans="1:3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="1">
-        <v>1</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-      <c r="G92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" ht="56" spans="1:7">
+    </row>
+    <row r="93" ht="56" spans="1:3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0</v>
-      </c>
-      <c r="G93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="28" spans="1:7">
+    </row>
+    <row r="94" ht="28" spans="1:3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D94" s="1">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0</v>
-      </c>
-      <c r="G94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" ht="112" spans="1:7">
+    </row>
+    <row r="95" ht="112" spans="1:3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0</v>
-      </c>
-      <c r="G95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="28" spans="1:7">
+    </row>
+    <row r="96" ht="28" spans="1:3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" s="1">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1">
-        <v>1</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="G96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" ht="42" spans="1:7">
+    </row>
+    <row r="97" ht="42" spans="1:3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" ht="28" spans="1:7">
+    </row>
+    <row r="98" ht="28" spans="1:3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0</v>
-      </c>
-      <c r="G98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="42" spans="1:7">
+    </row>
+    <row r="99" ht="42" spans="1:3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="27" customHeight="1" spans="1:7">
+    </row>
+    <row r="100" ht="27" customHeight="1" spans="1:3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0</v>
-      </c>
-      <c r="G100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="28" spans="1:7">
+    </row>
+    <row r="101" ht="28" spans="1:3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
